--- a/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_7_8.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste02/content/results/metrics_7_8.xlsx
@@ -518,551 +518,551 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_9</t>
+          <t>model_7_8_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9358036835387707</v>
+        <v>0.9502704464815882</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7661326713101322</v>
+        <v>0.7899910046587645</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9621031132713015</v>
+        <v>0.8367728754896496</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6554645989798502</v>
+        <v>0.6479379384403123</v>
       </c>
       <c r="F2" t="n">
-        <v>0.899611997804712</v>
+        <v>0.796441901473389</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4292810637730974</v>
+        <v>0.3325417533611585</v>
       </c>
       <c r="H2" t="n">
-        <v>1.563871903809177</v>
+        <v>1.404331118849349</v>
       </c>
       <c r="I2" t="n">
-        <v>0.3864899504329518</v>
+        <v>0.4198444274997459</v>
       </c>
       <c r="J2" t="n">
-        <v>1.436735969700176</v>
+        <v>0.2623572179489457</v>
       </c>
       <c r="K2" t="n">
-        <v>0.9116129212427599</v>
+        <v>0.3411008227243458</v>
       </c>
       <c r="L2" t="n">
-        <v>2.434132492265186</v>
+        <v>0.5490039293317125</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6551954393714119</v>
+        <v>0.5766643333527387</v>
       </c>
       <c r="N2" t="n">
-        <v>1.037578331587061</v>
+        <v>1.029109982547363</v>
       </c>
       <c r="O2" t="n">
-        <v>0.683088465666988</v>
+        <v>0.6012141278832998</v>
       </c>
       <c r="P2" t="n">
-        <v>131.6912868285354</v>
+        <v>132.2019797055029</v>
       </c>
       <c r="Q2" t="n">
-        <v>210.9182154449684</v>
+        <v>211.428908321936</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_8</t>
+          <t>model_7_8_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9360125861362547</v>
+        <v>0.9501317456081737</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7661314425789927</v>
+        <v>0.7898564009792336</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9626939672967237</v>
+        <v>0.8389891879334985</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6603067238198528</v>
+        <v>0.6705759276751123</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9010555621696043</v>
+        <v>0.8031765942557931</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4278841311418142</v>
+        <v>0.3334692467403404</v>
       </c>
       <c r="H3" t="n">
-        <v>1.563880120339965</v>
+        <v>1.405231214274166</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3804641482441503</v>
+        <v>0.4141437424454717</v>
       </c>
       <c r="J3" t="n">
-        <v>1.416543980990709</v>
+        <v>0.2454873517404466</v>
       </c>
       <c r="K3" t="n">
-        <v>0.8985040646174294</v>
+        <v>0.3298155470929591</v>
       </c>
       <c r="L3" t="n">
-        <v>2.440915902360308</v>
+        <v>0.5432130837802142</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6541285279987521</v>
+        <v>0.5774679616570433</v>
       </c>
       <c r="N3" t="n">
-        <v>1.037456047139753</v>
+        <v>1.029191173302533</v>
       </c>
       <c r="O3" t="n">
-        <v>0.6819761336683831</v>
+        <v>0.6020519683082585</v>
       </c>
       <c r="P3" t="n">
-        <v>131.6978056833667</v>
+        <v>132.1964092631011</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.9247342997997</v>
+        <v>211.4233378795341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_10</t>
+          <t>model_7_8_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9355874542476557</v>
+        <v>0.9499717384885635</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7661229292362917</v>
+        <v>0.7897040456670262</v>
       </c>
       <c r="D4" t="n">
-        <v>0.961514353381522</v>
+        <v>0.8412077215591507</v>
       </c>
       <c r="E4" t="n">
-        <v>0.6506275325997304</v>
+        <v>0.6927839223332974</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8981707579762828</v>
+        <v>0.8098174033123912</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4307269900384281</v>
+        <v>0.3345392150859388</v>
       </c>
       <c r="H4" t="n">
-        <v>1.563937049101807</v>
+        <v>1.406250014948428</v>
       </c>
       <c r="I4" t="n">
-        <v>0.3924943956594625</v>
+        <v>0.408437344181427</v>
       </c>
       <c r="J4" t="n">
-        <v>1.456906864289144</v>
+        <v>0.2289379181862188</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9247006689962206</v>
+        <v>0.318687591736937</v>
       </c>
       <c r="L4" t="n">
-        <v>2.427417239281526</v>
+        <v>0.5373333072857993</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6562979430399185</v>
+        <v>0.5783936506272686</v>
       </c>
       <c r="N4" t="n">
-        <v>1.037704904830641</v>
+        <v>1.029284836006695</v>
       </c>
       <c r="O4" t="n">
-        <v>0.6842379051991602</v>
+        <v>0.6030170657743865</v>
       </c>
       <c r="P4" t="n">
-        <v>131.6845616467357</v>
+        <v>132.1900023426996</v>
       </c>
       <c r="Q4" t="n">
-        <v>210.9114902631688</v>
+        <v>211.4169309591326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_7</t>
+          <t>model_7_8_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9362137822235043</v>
+        <v>0.9497895455669897</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7661188146315498</v>
+        <v>0.7895332308701797</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9632867081576442</v>
+        <v>0.8434283799465176</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6651523440562739</v>
+        <v>0.7145310170994676</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9025009928982584</v>
+        <v>0.8163572900763844</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4265387319799535</v>
+        <v>0.3357575399914237</v>
       </c>
       <c r="H5" t="n">
-        <v>1.563964563482661</v>
+        <v>1.40739225428147</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3744191032356582</v>
+        <v>0.4027254807144121</v>
       </c>
       <c r="J5" t="n">
-        <v>1.396337416241312</v>
+        <v>0.2127319479773067</v>
       </c>
       <c r="K5" t="n">
-        <v>0.8853782597384848</v>
+        <v>0.3077287511313862</v>
       </c>
       <c r="L5" t="n">
-        <v>2.447760109586417</v>
+        <v>0.5313582563264208</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6530993278054675</v>
+        <v>0.5794458904776387</v>
       </c>
       <c r="N5" t="n">
-        <v>1.037338273820388</v>
+        <v>1.029391485521762</v>
       </c>
       <c r="O5" t="n">
-        <v>0.6809031182921323</v>
+        <v>0.6041141016536238</v>
       </c>
       <c r="P5" t="n">
-        <v>131.7041042052433</v>
+        <v>132.1827319733422</v>
       </c>
       <c r="Q5" t="n">
-        <v>210.9310328216763</v>
+        <v>211.4096605897752</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_11</t>
+          <t>model_7_8_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.935364164682719</v>
+        <v>0.9495842316530755</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7661025537676256</v>
+        <v>0.7893430951027622</v>
       </c>
       <c r="D6" t="n">
-        <v>0.960927822885044</v>
+        <v>0.8456521329331919</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6457964340611444</v>
+        <v>0.7357784266367817</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8967321574720361</v>
+        <v>0.8227885451133565</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4322201283873132</v>
+        <v>0.3371304750791521</v>
       </c>
       <c r="H6" t="n">
-        <v>1.564073299954598</v>
+        <v>1.408663693033686</v>
       </c>
       <c r="I6" t="n">
-        <v>0.398476104503624</v>
+        <v>0.3970056574779751</v>
       </c>
       <c r="J6" t="n">
-        <v>1.477052872574506</v>
+        <v>0.1968983440094831</v>
       </c>
       <c r="K6" t="n">
-        <v>0.9377644493235393</v>
+        <v>0.2969519439193925</v>
       </c>
       <c r="L6" t="n">
-        <v>2.420764483048651</v>
+        <v>0.5252916882831128</v>
       </c>
       <c r="M6" t="n">
-        <v>0.657434505017278</v>
+        <v>0.5806293784154847</v>
       </c>
       <c r="N6" t="n">
-        <v>1.037835610917433</v>
+        <v>1.029511669276248</v>
       </c>
       <c r="O6" t="n">
-        <v>0.6854228529729034</v>
+        <v>0.6053479731231416</v>
       </c>
       <c r="P6" t="n">
-        <v>131.6776405281314</v>
+        <v>132.1745705143047</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.9045691445645</v>
+        <v>211.4014991307378</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_6</t>
+          <t>model_7_8_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9364068605001806</v>
+        <v>0.9493548190404921</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7660943477314338</v>
+        <v>0.7891328112225173</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9638811876347099</v>
+        <v>0.8478780476030355</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6699996742089429</v>
+        <v>0.756488087282113</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9039477925270336</v>
+        <v>0.8291018131983896</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4252476166547747</v>
+        <v>0.338664558275845</v>
       </c>
       <c r="H7" t="n">
-        <v>1.564128173756397</v>
+        <v>1.410069862309151</v>
       </c>
       <c r="I7" t="n">
-        <v>0.3683563270168783</v>
+        <v>0.3912802740710981</v>
       </c>
       <c r="J7" t="n">
-        <v>1.376123721025287</v>
+        <v>0.1814654713861012</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8722400240210828</v>
+        <v>0.2863728465831959</v>
       </c>
       <c r="L7" t="n">
-        <v>2.454674480057734</v>
+        <v>0.5191322015626318</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6521101261710132</v>
+        <v>0.5819489309860832</v>
       </c>
       <c r="N7" t="n">
-        <v>1.037225252390138</v>
+        <v>1.029645959586053</v>
       </c>
       <c r="O7" t="n">
-        <v>0.6798718042961696</v>
+        <v>0.6067237017785209</v>
       </c>
       <c r="P7" t="n">
-        <v>131.7101673045924</v>
+        <v>132.1654903301893</v>
       </c>
       <c r="Q7" t="n">
-        <v>210.9370959210254</v>
+        <v>211.3924189466223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_12</t>
+          <t>model_7_8_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9351342678944213</v>
+        <v>0.9491003840638519</v>
       </c>
       <c r="C8" t="n">
-        <v>0.766072083296171</v>
+        <v>0.7889014408409319</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9603435954101857</v>
+        <v>0.8501076301845905</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6409732289500042</v>
+        <v>0.776625522852445</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8952966366240457</v>
+        <v>0.835290646990366</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4337574492692376</v>
+        <v>0.3403659661362031</v>
       </c>
       <c r="H8" t="n">
-        <v>1.564277056137517</v>
+        <v>1.411617037116176</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4044343260698448</v>
+        <v>0.3855454562500751</v>
       </c>
       <c r="J8" t="n">
-        <v>1.497165964732521</v>
+        <v>0.1664590218145311</v>
       </c>
       <c r="K8" t="n">
-        <v>0.9508002636153279</v>
+        <v>0.2760022628853361</v>
       </c>
       <c r="L8" t="n">
-        <v>2.414172884137081</v>
+        <v>0.5128764625592833</v>
       </c>
       <c r="M8" t="n">
-        <v>0.65860264899956</v>
+        <v>0.5834089184578884</v>
       </c>
       <c r="N8" t="n">
-        <v>1.037970184647168</v>
+        <v>1.029794897133355</v>
       </c>
       <c r="O8" t="n">
-        <v>0.6866407272629027</v>
+        <v>0.6082458439395916</v>
       </c>
       <c r="P8" t="n">
-        <v>131.6705395475216</v>
+        <v>132.15546773851</v>
       </c>
       <c r="Q8" t="n">
-        <v>210.8974681639546</v>
+        <v>211.382396354943</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_5</t>
+          <t>model_7_8_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9365914745691176</v>
+        <v>0.9488198985866561</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7660576124639629</v>
+        <v>0.7886481102115647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9644773819858902</v>
+        <v>0.8523406918235324</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6748469550083116</v>
+        <v>0.7961448696858756</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9053955270532188</v>
+        <v>0.8413447732111903</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4240131015257234</v>
+        <v>0.3422415738137287</v>
       </c>
       <c r="H9" t="n">
-        <v>1.564373822659125</v>
+        <v>1.413311060201235</v>
       </c>
       <c r="I9" t="n">
-        <v>0.3622760617200045</v>
+        <v>0.3798016897763</v>
       </c>
       <c r="J9" t="n">
-        <v>1.355910231615871</v>
+        <v>0.1519131729698348</v>
       </c>
       <c r="K9" t="n">
-        <v>0.8590932985983348</v>
+        <v>0.2658574076830744</v>
       </c>
       <c r="L9" t="n">
-        <v>2.461655012877314</v>
+        <v>0.5065277138200183</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6511628840203681</v>
+        <v>0.5850141654812546</v>
       </c>
       <c r="N9" t="n">
-        <v>1.037117185618077</v>
+        <v>1.029959083754153</v>
       </c>
       <c r="O9" t="n">
-        <v>0.6788842360861099</v>
+        <v>0.6099194296520618</v>
       </c>
       <c r="P9" t="n">
-        <v>131.7159818488055</v>
+        <v>132.1444768701823</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.9429104652386</v>
+        <v>211.3714054866153</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_13</t>
+          <t>model_7_8_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9348980210123086</v>
+        <v>0.9485124480699152</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7660318506074854</v>
+        <v>0.7883718300322916</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9597619029397902</v>
+        <v>0.8545787214270892</v>
       </c>
       <c r="E10" t="n">
-        <v>0.6361599969172289</v>
+        <v>0.8150095213129063</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8938648595064523</v>
+        <v>0.8472570941816916</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4353372332577422</v>
+        <v>0.3442974968348546</v>
       </c>
       <c r="H10" t="n">
-        <v>1.564546092312013</v>
+        <v>1.415158547032187</v>
       </c>
       <c r="I10" t="n">
-        <v>0.4103666944899684</v>
+        <v>0.3740451449590616</v>
       </c>
       <c r="J10" t="n">
-        <v>1.517237468477928</v>
+        <v>0.1378552040523157</v>
       </c>
       <c r="K10" t="n">
-        <v>0.9638020814839483</v>
+        <v>0.2559501745056886</v>
       </c>
       <c r="L10" t="n">
-        <v>2.407641876061255</v>
+        <v>0.5000790989570822</v>
       </c>
       <c r="M10" t="n">
-        <v>0.6598009042565357</v>
+        <v>0.5867686910826571</v>
       </c>
       <c r="N10" t="n">
-        <v>1.03810847550499</v>
+        <v>1.030139054788342</v>
       </c>
       <c r="O10" t="n">
-        <v>0.6878899947268982</v>
+        <v>0.6117486490406847</v>
       </c>
       <c r="P10" t="n">
-        <v>131.6632685987505</v>
+        <v>132.1324983579331</v>
       </c>
       <c r="Q10" t="n">
-        <v>210.8901972151836</v>
+        <v>211.3594269743662</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_4</t>
+          <t>model_7_8_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9367671241105108</v>
+        <v>0.9481768211192674</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7660080781678571</v>
+        <v>0.7880715462613817</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9650748511655496</v>
+        <v>0.8568212094637404</v>
       </c>
       <c r="E11" t="n">
-        <v>0.6796921253900299</v>
+        <v>0.8331722676436866</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9068435263344974</v>
+        <v>0.8530167880717416</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4228385322336357</v>
+        <v>0.3465418357992563</v>
       </c>
       <c r="H11" t="n">
-        <v>1.56470505872527</v>
+        <v>1.417166545990941</v>
       </c>
       <c r="I11" t="n">
-        <v>0.3561827951336247</v>
+        <v>0.3682771323891707</v>
       </c>
       <c r="J11" t="n">
-        <v>1.335705542791068</v>
+        <v>0.1243202960973212</v>
       </c>
       <c r="K11" t="n">
-        <v>0.8459441689623466</v>
+        <v>0.2462986974150848</v>
       </c>
       <c r="L11" t="n">
-        <v>2.468702777129066</v>
+        <v>0.4935393844272054</v>
       </c>
       <c r="M11" t="n">
-        <v>0.6502603572674838</v>
+        <v>0.5886780408672098</v>
       </c>
       <c r="N11" t="n">
-        <v>1.037014366374335</v>
+        <v>1.030335519344819</v>
       </c>
       <c r="O11" t="n">
-        <v>0.6779432869008674</v>
+        <v>0.6137392837984648</v>
       </c>
       <c r="P11" t="n">
-        <v>131.7215297865951</v>
+        <v>132.1195034588061</v>
       </c>
       <c r="Q11" t="n">
-        <v>210.9484584030281</v>
+        <v>211.3464320752392</v>
       </c>
     </row>
     <row r="12">
@@ -1072,822 +1072,822 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9346558782066984</v>
+        <v>0.9478120356371321</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7659822065280708</v>
+        <v>0.7877462690601658</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9591828134441223</v>
+        <v>0.8590696830891165</v>
       </c>
       <c r="E12" t="n">
-        <v>0.631357788194076</v>
+        <v>0.8505885584437149</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8924370620547926</v>
+        <v>0.8586150766655485</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4369564433138224</v>
+        <v>0.3489811579979771</v>
       </c>
       <c r="H12" t="n">
-        <v>1.564878062499648</v>
+        <v>1.419341676133236</v>
       </c>
       <c r="I12" t="n">
-        <v>0.4162725165718517</v>
+        <v>0.3624937239953381</v>
       </c>
       <c r="J12" t="n">
-        <v>1.537263004275216</v>
+        <v>0.1113416480116894</v>
       </c>
       <c r="K12" t="n">
-        <v>0.9767677604235337</v>
+        <v>0.2369176860035138</v>
       </c>
       <c r="L12" t="n">
-        <v>2.401169285269074</v>
+        <v>0.4869016197011088</v>
       </c>
       <c r="M12" t="n">
-        <v>0.6610268098298452</v>
+        <v>0.5907462720982479</v>
       </c>
       <c r="N12" t="n">
-        <v>1.038250217635103</v>
+        <v>1.030549052309971</v>
       </c>
       <c r="O12" t="n">
-        <v>0.6891680896384379</v>
+        <v>0.6158955639148371</v>
       </c>
       <c r="P12" t="n">
-        <v>131.6558435218098</v>
+        <v>132.1054746935633</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.8827721382428</v>
+        <v>211.3324033099963</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_3</t>
+          <t>model_7_8_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9369334545781544</v>
+        <v>0.947416970253367</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7659452586529293</v>
+        <v>0.7873948260589496</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9656737108226864</v>
+        <v>0.8613249278347428</v>
       </c>
       <c r="E13" t="n">
-        <v>0.684532914534371</v>
+        <v>0.867213263987769</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9082912878570586</v>
+        <v>0.8640425509243852</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4217262796306218</v>
+        <v>0.3516229620383237</v>
       </c>
       <c r="H13" t="n">
-        <v>1.565125133110849</v>
+        <v>1.421691777100615</v>
       </c>
       <c r="I13" t="n">
-        <v>0.3500753478158526</v>
+        <v>0.3566928992737138</v>
       </c>
       <c r="J13" t="n">
-        <v>1.315519124023023</v>
+        <v>0.09895289053968039</v>
       </c>
       <c r="K13" t="n">
-        <v>0.8327971983883388</v>
+        <v>0.2278229069286229</v>
       </c>
       <c r="L13" t="n">
-        <v>2.47582187971505</v>
+        <v>0.4801674466629438</v>
       </c>
       <c r="M13" t="n">
-        <v>0.6494045577531942</v>
+        <v>0.5929780451570899</v>
       </c>
       <c r="N13" t="n">
-        <v>1.036917002198154</v>
+        <v>1.03078031009559</v>
       </c>
       <c r="O13" t="n">
-        <v>0.6770510542295053</v>
+        <v>0.618222348173201</v>
       </c>
       <c r="P13" t="n">
-        <v>131.726797603726</v>
+        <v>132.0903916160546</v>
       </c>
       <c r="Q13" t="n">
-        <v>210.953726220159</v>
+        <v>211.3173202324877</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_15</t>
+          <t>model_7_8_12</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9344078476988295</v>
+        <v>0.9469904025100051</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7659235198725244</v>
+        <v>0.7870161354523199</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9586062385221691</v>
+        <v>0.8635870944332011</v>
       </c>
       <c r="E14" t="n">
-        <v>0.626567017780245</v>
+        <v>0.882998156550951</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8910133205295423</v>
+        <v>0.8692886142763143</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4386150244620179</v>
+        <v>0.3544754225023483</v>
       </c>
       <c r="H14" t="n">
-        <v>1.565270500435515</v>
+        <v>1.424224082930858</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4221526938698407</v>
+        <v>0.3508742705176915</v>
       </c>
       <c r="J14" t="n">
-        <v>1.557240841547513</v>
+        <v>0.08718996305992598</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9896966079207001</v>
+        <v>0.2190321167888087</v>
       </c>
       <c r="L14" t="n">
-        <v>2.394761115411819</v>
+        <v>0.4733417346489442</v>
       </c>
       <c r="M14" t="n">
-        <v>0.6622801706694968</v>
+        <v>0.5953783859885646</v>
       </c>
       <c r="N14" t="n">
-        <v>1.038395406225076</v>
+        <v>1.031030008286826</v>
       </c>
       <c r="O14" t="n">
-        <v>0.6904748086438481</v>
+        <v>0.6207248764832622</v>
       </c>
       <c r="P14" t="n">
-        <v>131.6482663761714</v>
+        <v>132.0742325308982</v>
       </c>
       <c r="Q14" t="n">
-        <v>210.8751949926044</v>
+        <v>211.3011611473312</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_2</t>
+          <t>model_7_8_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9370900232287384</v>
+        <v>0.9465311845891928</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7658687416599825</v>
+        <v>0.7866090246039772</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9662734995781622</v>
+        <v>0.8658575790604093</v>
       </c>
       <c r="E15" t="n">
-        <v>0.6893683687827659</v>
+        <v>0.8978933581193221</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9097383379063605</v>
+        <v>0.8743432260569719</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4206793043432342</v>
+        <v>0.3575462148533243</v>
       </c>
       <c r="H15" t="n">
-        <v>1.565636802595012</v>
+        <v>1.426946435048298</v>
       </c>
       <c r="I15" t="n">
-        <v>0.3439584251241918</v>
+        <v>0.3450342465552725</v>
       </c>
       <c r="J15" t="n">
-        <v>1.295354952132594</v>
+        <v>0.07609003474912139</v>
       </c>
       <c r="K15" t="n">
-        <v>0.8196566886283929</v>
+        <v>0.2105621406521969</v>
       </c>
       <c r="L15" t="n">
-        <v>2.483013200925452</v>
+        <v>0.4664206311839624</v>
       </c>
       <c r="M15" t="n">
-        <v>0.6485979527744704</v>
+        <v>0.5979516827079963</v>
       </c>
       <c r="N15" t="n">
-        <v>1.036825352256348</v>
+        <v>1.031298818777058</v>
       </c>
       <c r="O15" t="n">
-        <v>0.6762101104069348</v>
+        <v>0.6234077237714987</v>
       </c>
       <c r="P15" t="n">
-        <v>131.73176896596</v>
+        <v>132.0569813057721</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.958697582393</v>
+        <v>211.2839099222051</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_16</t>
+          <t>model_7_8_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9341545215694197</v>
+        <v>0.9460382422562053</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7658561723395758</v>
+        <v>0.7861722431944408</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9580325188335231</v>
+        <v>0.8681374125263768</v>
       </c>
       <c r="E16" t="n">
-        <v>0.6217895322289665</v>
+        <v>0.911849292433182</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8895941885792525</v>
+        <v>0.8791961609821443</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4403090174558402</v>
+        <v>0.3608425225038028</v>
       </c>
       <c r="H16" t="n">
-        <v>1.565720853698448</v>
+        <v>1.429867194345062</v>
       </c>
       <c r="I16" t="n">
-        <v>0.4280037521801071</v>
+        <v>0.3391701759898855</v>
       </c>
       <c r="J16" t="n">
-        <v>1.577163280042718</v>
+        <v>0.06569004991621502</v>
       </c>
       <c r="K16" t="n">
-        <v>1.002583596351009</v>
+        <v>0.2024301129530502</v>
       </c>
       <c r="L16" t="n">
-        <v>2.388410252877101</v>
+        <v>0.4594101936044401</v>
       </c>
       <c r="M16" t="n">
-        <v>0.6635578478594313</v>
+        <v>0.600701691777044</v>
       </c>
       <c r="N16" t="n">
-        <v>1.038543694691071</v>
+        <v>1.031587370386612</v>
       </c>
       <c r="O16" t="n">
-        <v>0.6918068791969144</v>
+        <v>0.6262748064199193</v>
       </c>
       <c r="P16" t="n">
-        <v>131.6405569723523</v>
+        <v>132.0386272831493</v>
       </c>
       <c r="Q16" t="n">
-        <v>210.8674855887853</v>
+        <v>211.2655558995823</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_17</t>
+          <t>model_7_8_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9338960756479361</v>
+        <v>0.9455102296273947</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7657804755366446</v>
+        <v>0.7857045279834297</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9574616732711033</v>
+        <v>0.870427621056177</v>
       </c>
       <c r="E17" t="n">
-        <v>0.6170265765547739</v>
+        <v>0.9248135403539417</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8881800375363584</v>
+        <v>0.8838365536051642</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4420372465228355</v>
+        <v>0.3643733453839336</v>
       </c>
       <c r="H17" t="n">
-        <v>1.566227038568201</v>
+        <v>1.432994808114723</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4338254988239403</v>
+        <v>0.3332794192180967</v>
       </c>
       <c r="J17" t="n">
-        <v>1.597025127965858</v>
+        <v>0.05602907138810322</v>
       </c>
       <c r="K17" t="n">
-        <v>1.015425353683558</v>
+        <v>0.1946542408411915</v>
       </c>
       <c r="L17" t="n">
-        <v>2.382115282800771</v>
+        <v>0.4523087241437618</v>
       </c>
       <c r="M17" t="n">
-        <v>0.6648588169851066</v>
+        <v>0.6036334528370123</v>
       </c>
       <c r="N17" t="n">
-        <v>1.038694980108525</v>
+        <v>1.031896450949818</v>
       </c>
       <c r="O17" t="n">
-        <v>0.6931632332716471</v>
+        <v>0.6293313786177925</v>
       </c>
       <c r="P17" t="n">
-        <v>131.6327222646072</v>
+        <v>132.0191525257161</v>
       </c>
       <c r="Q17" t="n">
-        <v>210.8596508810402</v>
+        <v>211.2460811421491</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_1</t>
+          <t>model_7_8_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9372363699123738</v>
+        <v>0.9449459635448043</v>
       </c>
       <c r="C18" t="n">
-        <v>0.76577788626253</v>
+        <v>0.7852046036879496</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9668741494284291</v>
+        <v>0.8727288982168703</v>
       </c>
       <c r="E18" t="n">
-        <v>0.6941957276372575</v>
+        <v>0.9367353878152633</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9111840127855684</v>
+        <v>0.8882536513845273</v>
       </c>
       <c r="G18" t="n">
-        <v>0.4197006833958998</v>
+        <v>0.3681465952764223</v>
       </c>
       <c r="H18" t="n">
-        <v>1.566244353056128</v>
+        <v>1.436337804180539</v>
       </c>
       <c r="I18" t="n">
-        <v>0.3378327205902254</v>
+        <v>0.3273601922823293</v>
       </c>
       <c r="J18" t="n">
-        <v>1.275224538583325</v>
+        <v>0.04714489136908187</v>
       </c>
       <c r="K18" t="n">
-        <v>0.8065286666438715</v>
+        <v>0.1872525422720841</v>
       </c>
       <c r="L18" t="n">
-        <v>2.490272808291738</v>
+        <v>0.4470824499473228</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6478431009093945</v>
+        <v>0.6067508510718566</v>
       </c>
       <c r="N18" t="n">
-        <v>1.036739685904952</v>
+        <v>1.032226753046944</v>
       </c>
       <c r="O18" t="n">
-        <v>0.6754231229352037</v>
+        <v>0.6325814909493981</v>
       </c>
       <c r="P18" t="n">
-        <v>131.7364269606955</v>
+        <v>131.9985481268135</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.9633555771285</v>
+        <v>211.2254767432466</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_18</t>
+          <t>model_7_8_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9336327989968655</v>
+        <v>0.9443442584946565</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7656967934288903</v>
+        <v>0.7846710687510769</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9568936717318947</v>
+        <v>0.8750440185335002</v>
       </c>
       <c r="E19" t="n">
-        <v>0.6122790943668681</v>
+        <v>0.9475598275980789</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8867710363615315</v>
+        <v>0.8924373630862474</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4437977787008219</v>
+        <v>0.372170199717357</v>
       </c>
       <c r="H19" t="n">
-        <v>1.566786621208075</v>
+        <v>1.439905554760108</v>
       </c>
       <c r="I19" t="n">
-        <v>0.4396182408057864</v>
+        <v>0.3214053586917462</v>
       </c>
       <c r="J19" t="n">
-        <v>1.61682245040262</v>
+        <v>0.03907850132780812</v>
       </c>
       <c r="K19" t="n">
-        <v>1.028220345604203</v>
+        <v>0.1802419270530013</v>
       </c>
       <c r="L19" t="n">
-        <v>2.37587699229127</v>
+        <v>0.4521606987393883</v>
       </c>
       <c r="M19" t="n">
-        <v>0.6661814908122424</v>
+        <v>0.6100575380383042</v>
       </c>
       <c r="N19" t="n">
-        <v>1.038849093270128</v>
+        <v>1.032578970637274</v>
       </c>
       <c r="O19" t="n">
-        <v>0.6945422160619164</v>
+        <v>0.636028950425793</v>
       </c>
       <c r="P19" t="n">
-        <v>131.6247725473537</v>
+        <v>131.9768080064405</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.8517011637867</v>
+        <v>211.2037366228735</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_0</t>
+          <t>model_7_8_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9373720021109088</v>
+        <v>0.9437037156679406</v>
       </c>
       <c r="C20" t="n">
-        <v>0.76567225547495</v>
+        <v>0.7841025360115739</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9674754596222123</v>
+        <v>0.8773722067760001</v>
       </c>
       <c r="E20" t="n">
-        <v>0.6990129683948683</v>
+        <v>0.957234612780905</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9126277515567388</v>
+        <v>0.8963754675435854</v>
       </c>
       <c r="G20" t="n">
-        <v>0.418793710259767</v>
+        <v>0.3764535125490346</v>
       </c>
       <c r="H20" t="n">
-        <v>1.56695070661906</v>
+        <v>1.443707335807018</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3317002815681535</v>
+        <v>0.3154169124533145</v>
       </c>
       <c r="J20" t="n">
-        <v>1.255136318183703</v>
+        <v>0.03186883575471244</v>
       </c>
       <c r="K20" t="n">
-        <v>0.7934182262534173</v>
+        <v>0.1736428741040135</v>
       </c>
       <c r="L20" t="n">
-        <v>2.497611750486421</v>
+        <v>0.4572545179658812</v>
       </c>
       <c r="M20" t="n">
-        <v>0.6471427278891164</v>
+        <v>0.6135580759382396</v>
       </c>
       <c r="N20" t="n">
-        <v>1.036660291447273</v>
+        <v>1.03295392253584</v>
       </c>
       <c r="O20" t="n">
-        <v>0.6746929335854804</v>
+        <v>0.6396785134712411</v>
       </c>
       <c r="P20" t="n">
-        <v>131.7407536371609</v>
+        <v>131.9539214240218</v>
       </c>
       <c r="Q20" t="n">
-        <v>210.967682253594</v>
+        <v>211.1808500404548</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_19</t>
+          <t>model_7_8_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9333648639868264</v>
+        <v>0.9430231263877979</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7656053982164512</v>
+        <v>0.7834976077093414</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9563287091873299</v>
+        <v>0.8797156668663091</v>
       </c>
       <c r="E21" t="n">
-        <v>0.6075481518012507</v>
+        <v>0.965706761606437</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8853675348559323</v>
+        <v>0.9000578809736581</v>
       </c>
       <c r="G21" t="n">
-        <v>0.4455894613466803</v>
+        <v>0.3810046161991744</v>
       </c>
       <c r="H21" t="n">
-        <v>1.567397781414491</v>
+        <v>1.447752494149485</v>
       </c>
       <c r="I21" t="n">
-        <v>0.445379989716942</v>
+        <v>0.3093891847522002</v>
       </c>
       <c r="J21" t="n">
-        <v>1.636550801493632</v>
+        <v>0.02555537674106878</v>
       </c>
       <c r="K21" t="n">
-        <v>1.040965395605287</v>
+        <v>0.1674722807466345</v>
       </c>
       <c r="L21" t="n">
-        <v>2.369698771688859</v>
+        <v>0.4623590364986618</v>
       </c>
       <c r="M21" t="n">
-        <v>0.6675248769496762</v>
+        <v>0.6172557137841451</v>
       </c>
       <c r="N21" t="n">
-        <v>1.039005933276004</v>
+        <v>1.033352316260801</v>
       </c>
       <c r="O21" t="n">
-        <v>0.6959427929284133</v>
+        <v>0.6435335674154122</v>
       </c>
       <c r="P21" t="n">
-        <v>131.6167144822549</v>
+        <v>131.929887575841</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.843643098688</v>
+        <v>211.1568161922741</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_20</t>
+          <t>model_7_8_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.933092725902691</v>
+        <v>0.9423013260465938</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7655066934088357</v>
+        <v>0.7828548381736822</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9557668550438386</v>
+        <v>0.882075738695025</v>
       </c>
       <c r="E22" t="n">
-        <v>0.6028352836273448</v>
+        <v>0.9729229577033278</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8839699243334866</v>
+        <v>0.9034737747317974</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4474092499683747</v>
+        <v>0.3858312984043918</v>
       </c>
       <c r="H22" t="n">
-        <v>1.56805782091751</v>
+        <v>1.45205069699412</v>
       </c>
       <c r="I22" t="n">
-        <v>0.4511100377185916</v>
+        <v>0.3033187291906145</v>
       </c>
       <c r="J22" t="n">
-        <v>1.656203781146396</v>
+        <v>0.02017785573307643</v>
       </c>
       <c r="K22" t="n">
-        <v>1.053656950206084</v>
+        <v>0.1617482924618455</v>
       </c>
       <c r="L22" t="n">
-        <v>2.363570976066455</v>
+        <v>0.4688715155648795</v>
       </c>
       <c r="M22" t="n">
-        <v>0.6688865748154725</v>
+        <v>0.6211532004299678</v>
       </c>
       <c r="N22" t="n">
-        <v>1.039165233617937</v>
+        <v>1.033774833533701</v>
       </c>
       <c r="O22" t="n">
-        <v>0.6973624610914598</v>
+        <v>0.6475969781366573</v>
       </c>
       <c r="P22" t="n">
-        <v>131.6085631103987</v>
+        <v>131.9047101116353</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.8354917268317</v>
+        <v>211.1316387280683</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_21</t>
+          <t>model_7_8_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9328165369786624</v>
+        <v>0.9415369087399127</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7654009281845843</v>
+        <v>0.7821727467281443</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9552081029368367</v>
+        <v>0.8844537289019924</v>
       </c>
       <c r="E23" t="n">
-        <v>0.5981411472129111</v>
+        <v>0.9788299746129763</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8825783566122583</v>
+        <v>0.9066123243774005</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4492561265750872</v>
+        <v>0.3909429604539866</v>
       </c>
       <c r="H23" t="n">
-        <v>1.568765073459083</v>
+        <v>1.456611845631174</v>
       </c>
       <c r="I23" t="n">
-        <v>0.4568084497197008</v>
+        <v>0.2972021848966487</v>
       </c>
       <c r="J23" t="n">
-        <v>1.675778648092802</v>
+        <v>0.0157759371738112</v>
       </c>
       <c r="K23" t="n">
-        <v>1.066293630762674</v>
+        <v>0.1564890476859051</v>
       </c>
       <c r="L23" t="n">
-        <v>2.357496280160341</v>
+        <v>0.4772329946911482</v>
       </c>
       <c r="M23" t="n">
-        <v>0.6702657134115448</v>
+        <v>0.625254316621634</v>
       </c>
       <c r="N23" t="n">
-        <v>1.039326905183222</v>
+        <v>1.034222297322978</v>
       </c>
       <c r="O23" t="n">
-        <v>0.6988003124727773</v>
+        <v>0.6518726873350836</v>
       </c>
       <c r="P23" t="n">
-        <v>131.6003242321425</v>
+        <v>131.8783872216606</v>
       </c>
       <c r="Q23" t="n">
-        <v>210.8272528485755</v>
+        <v>211.1053158380937</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_22</t>
+          <t>model_7_8_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9325365014117395</v>
+        <v>0.9407287097963342</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7652883596425896</v>
+        <v>0.7814497869597598</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9546526337300157</v>
+        <v>0.8868504375128597</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5934663345760034</v>
+        <v>0.9833765043219538</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8811930737094557</v>
+        <v>0.9094627209027808</v>
       </c>
       <c r="G24" t="n">
-        <v>0.4511287257005458</v>
+        <v>0.3963473905111097</v>
       </c>
       <c r="H24" t="n">
-        <v>1.569517819817733</v>
+        <v>1.461446280931285</v>
       </c>
       <c r="I24" t="n">
-        <v>0.4624733811888256</v>
+        <v>0.2910374940854134</v>
       </c>
       <c r="J24" t="n">
-        <v>1.69527293357745</v>
+        <v>0.01238785587790219</v>
       </c>
       <c r="K24" t="n">
-        <v>1.078873239542166</v>
+        <v>0.1517126589942476</v>
       </c>
       <c r="L24" t="n">
-        <v>2.351479790939623</v>
+        <v>0.485651219888341</v>
       </c>
       <c r="M24" t="n">
-        <v>0.6716611688199235</v>
+        <v>0.6295612682742718</v>
       </c>
       <c r="N24" t="n">
-        <v>1.039490828441909</v>
+        <v>1.034695389387512</v>
       </c>
       <c r="O24" t="n">
-        <v>0.7002551753068816</v>
+        <v>0.6563629948361932</v>
       </c>
       <c r="P24" t="n">
-        <v>131.5920051147309</v>
+        <v>131.8509284070401</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.818933731164</v>
+        <v>211.0778570234731</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_23</t>
+          <t>model_7_8_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9322528519326156</v>
+        <v>0.9398753259881176</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7651693308887639</v>
+        <v>0.7806844306192759</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9541002634379063</v>
+        <v>0.8892674667749753</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5888119743783431</v>
+        <v>0.9865124070025983</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8798142360492361</v>
+        <v>0.9120150403849611</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4530254910735325</v>
+        <v>0.402053971966125</v>
       </c>
       <c r="H25" t="n">
-        <v>1.570313765642642</v>
+        <v>1.466564222304243</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4681067084947425</v>
+        <v>0.2848205355385593</v>
       </c>
       <c r="J25" t="n">
-        <v>1.714681931004476</v>
+        <v>0.0100509761260546</v>
       </c>
       <c r="K25" t="n">
-        <v>1.091394319749609</v>
+        <v>0.147435755832307</v>
       </c>
       <c r="L25" t="n">
-        <v>2.345514197851899</v>
+        <v>0.4941376008027444</v>
       </c>
       <c r="M25" t="n">
-        <v>0.6730716834584058</v>
+        <v>0.6340772602499832</v>
       </c>
       <c r="N25" t="n">
-        <v>1.039656867161396</v>
+        <v>1.035194931128907</v>
       </c>
       <c r="O25" t="n">
-        <v>0.701725738473692</v>
+        <v>0.6610712419397028</v>
       </c>
       <c r="P25" t="n">
-        <v>131.5836137667936</v>
+        <v>131.8223378815056</v>
       </c>
       <c r="Q25" t="n">
-        <v>210.8105423832266</v>
+        <v>211.0492664979386</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_7_8_24</t>
+          <t>model_7_8_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9319658384810217</v>
+        <v>0.9389756885242988</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7650440495395666</v>
+        <v>0.7798751983137819</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9535514054830945</v>
+        <v>0.8917056946027777</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5841784658896982</v>
+        <v>0.9881895774045883</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8784421493291671</v>
+        <v>0.9142592807639465</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4549447513459173</v>
+        <v>0.4080698518291312</v>
       </c>
       <c r="H26" t="n">
-        <v>1.571151522601591</v>
+        <v>1.471975562457253</v>
       </c>
       <c r="I26" t="n">
-        <v>0.473704215363012</v>
+        <v>0.2785490511296506</v>
       </c>
       <c r="J26" t="n">
-        <v>1.73400397539189</v>
+        <v>0.008801146028647674</v>
       </c>
       <c r="K26" t="n">
-        <v>1.103854095377451</v>
+        <v>0.1436750985791491</v>
       </c>
       <c r="L26" t="n">
-        <v>2.339601653293962</v>
+        <v>0.5027157237339869</v>
       </c>
       <c r="M26" t="n">
-        <v>0.6744959238912548</v>
+        <v>0.6388034532069556</v>
       </c>
       <c r="N26" t="n">
-        <v>1.039824875035499</v>
+        <v>1.035721548180898</v>
       </c>
       <c r="O26" t="n">
-        <v>0.7032106117703514</v>
+        <v>0.6659986387154216</v>
       </c>
       <c r="P26" t="n">
-        <v>131.5751585860345</v>
+        <v>131.7926338275368</v>
       </c>
       <c r="Q26" t="n">
-        <v>210.8020872024675</v>
+        <v>211.0195624439698</v>
       </c>
     </row>
   </sheetData>
